--- a/Diagramas/Requerimentos, Historias de Usuario, Product Backlog.xlsx
+++ b/Diagramas/Requerimentos, Historias de Usuario, Product Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lyda_\Documents\GitHub\EduFree-Eq2\Diagramas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FD2605-E4AF-46F7-9983-F88B6B01753A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BCDFE5A-1609-41F5-B3AB-137F40AC19B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8C879B11-A4E8-4F60-825B-D6E4086FF9EC}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <sheet name="Product Backlog" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Casos de Uso'!$1:$32</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Casos de Uso'!$1:$33</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="151">
   <si>
     <t>Identificación</t>
   </si>
@@ -991,7 +991,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1031,6 +1031,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1043,90 +1053,83 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1143,61 +1146,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>262217</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>74855</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2429434</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>3635723</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC33516E-F578-4642-A1C7-A0301ED61985}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2682688" y="4593067"/>
-          <a:ext cx="5421405" cy="3560868"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1501,10 +1449,10 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:H67"/>
+  <dimension ref="A2:H68"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -1519,24 +1467,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
     </row>
     <row r="3" spans="2:7" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
     </row>
     <row r="5" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
@@ -1545,46 +1493,46 @@
       <c r="D5" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="F5" s="15"/>
+      <c r="F5" s="19"/>
     </row>
     <row r="6" spans="2:7" ht="77.400000000000006" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="18"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="22"/>
     </row>
     <row r="7" spans="2:7" ht="15.6" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
     </row>
     <row r="8" spans="2:7" ht="15.6" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C8" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="46" t="s">
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="16" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="38.4" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="30" t="s">
         <v>81</v>
       </c>
       <c r="D9" s="26" t="s">
@@ -1594,66 +1542,66 @@
       <c r="F9" s="27"/>
     </row>
     <row r="10" spans="2:7" ht="118.8" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="25"/>
+      <c r="C10" s="30"/>
       <c r="D10" s="28" t="s">
         <v>85</v>
       </c>
       <c r="E10" s="29"/>
       <c r="F10" s="29"/>
     </row>
-    <row r="11" spans="2:7" ht="298.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" ht="15.6" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C11" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
     </row>
     <row r="12" spans="2:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="2:7" ht="15.6" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C13" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F13" s="15"/>
-    </row>
-    <row r="14" spans="2:7" ht="78.599999999999994" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F13" s="19"/>
+    </row>
+    <row r="14" spans="2:7" ht="78.599999999999994" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="18"/>
-    </row>
-    <row r="15" spans="2:7" ht="15.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E14" s="21"/>
+      <c r="F14" s="22"/>
+    </row>
+    <row r="15" spans="2:7" ht="15.6" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C15" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-    </row>
-    <row r="16" spans="2:7" ht="15.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+    </row>
+    <row r="16" spans="2:7" ht="15.6" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C16" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-    </row>
-    <row r="17" spans="3:6" ht="33.6" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="25" t="s">
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+    </row>
+    <row r="17" spans="3:6" ht="33.6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="30" t="s">
         <v>81</v>
       </c>
       <c r="D17" s="26" t="s">
@@ -1662,440 +1610,495 @@
       <c r="E17" s="27"/>
       <c r="F17" s="27"/>
     </row>
-    <row r="18" spans="3:6" ht="67.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="25"/>
+    <row r="18" spans="3:6" ht="67.8" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="30"/>
       <c r="D18" s="28" t="s">
         <v>88</v>
       </c>
       <c r="E18" s="29"/>
       <c r="F18" s="29"/>
     </row>
-    <row r="20" spans="3:6" ht="15.6" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="2" t="s">
+    <row r="19" spans="3:6" ht="15.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+    </row>
+    <row r="21" spans="3:6" ht="15.6" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D21" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="E21" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="F20" s="15"/>
-    </row>
-    <row r="21" spans="3:6" ht="79.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="3" t="s">
+      <c r="F21" s="19"/>
+    </row>
+    <row r="22" spans="3:6" ht="79.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D22" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="18"/>
-    </row>
-    <row r="22" spans="3:6" ht="15.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="22"/>
     </row>
     <row r="23" spans="3:6" ht="15.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+    </row>
+    <row r="24" spans="3:6" ht="15.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D24" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-    </row>
-    <row r="24" spans="3:6" ht="32.4" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="25" t="s">
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+    </row>
+    <row r="25" spans="3:6" ht="32.4" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="D24" s="26" t="s">
+      <c r="D25" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-    </row>
-    <row r="25" spans="3:6" ht="63.6" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="25"/>
-      <c r="D25" s="28" t="s">
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+    </row>
+    <row r="26" spans="3:6" ht="63.6" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="30"/>
+      <c r="D26" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-    </row>
-    <row r="27" spans="3:6" ht="15.6" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="2" t="s">
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+    </row>
+    <row r="28" spans="3:6" ht="15.6" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D28" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="E27" s="15" t="s">
+      <c r="E28" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="F27" s="15"/>
-    </row>
-    <row r="28" spans="3:6" ht="79.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="3" t="s">
+      <c r="F28" s="19"/>
+    </row>
+    <row r="29" spans="3:6" ht="79.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="D29" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E28" s="17"/>
-      <c r="F28" s="18"/>
-    </row>
-    <row r="29" spans="3:6" ht="15.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="22"/>
     </row>
     <row r="30" spans="3:6" ht="15.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C30" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+    </row>
+    <row r="31" spans="3:6" ht="15.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D30" s="20" t="s">
+      <c r="D31" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-    </row>
-    <row r="31" spans="3:6" ht="15.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="5" t="s">
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+    </row>
+    <row r="32" spans="3:6" ht="15.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D31" s="22" t="s">
+      <c r="D32" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-    </row>
-    <row r="33" spans="3:6" ht="15.6" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="2" t="s">
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+    </row>
+    <row r="34" spans="3:6" ht="15.6" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D34" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="E33" s="15" t="s">
+      <c r="E34" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="F33" s="15"/>
-    </row>
-    <row r="34" spans="3:6" ht="82.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="3" t="s">
+      <c r="F34" s="19"/>
+    </row>
+    <row r="35" spans="3:6" ht="82.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="16" t="s">
+      <c r="D35" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E34" s="17"/>
-      <c r="F34" s="18"/>
-    </row>
-    <row r="35" spans="3:6" ht="34.200000000000003" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="4" t="s">
+      <c r="E35" s="21"/>
+      <c r="F35" s="22"/>
+    </row>
+    <row r="36" spans="3:6" ht="34.200000000000003" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D35" s="19" t="s">
+      <c r="D36" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-    </row>
-    <row r="36" spans="3:6" ht="15.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="4" t="s">
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+    </row>
+    <row r="37" spans="3:6" ht="15.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D36" s="20" t="s">
+      <c r="D37" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-    </row>
-    <row r="37" spans="3:6" ht="15.6" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="5" t="s">
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+    </row>
+    <row r="38" spans="3:6" ht="15.6" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D37" s="22" t="s">
+      <c r="D38" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-    </row>
-    <row r="39" spans="3:6" ht="15.6" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="C39" s="2" t="s">
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+    </row>
+    <row r="40" spans="3:6" ht="15.6" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="C40" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D39" s="12" t="s">
+      <c r="D40" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="E39" s="15" t="s">
+      <c r="E40" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="F39" s="15"/>
-    </row>
-    <row r="40" spans="3:6" ht="79.2" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="3" t="s">
+      <c r="F40" s="19"/>
+    </row>
+    <row r="41" spans="3:6" ht="79.2" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D40" s="16" t="s">
+      <c r="D41" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E40" s="17"/>
-      <c r="F40" s="18"/>
-    </row>
-    <row r="41" spans="3:6" ht="15.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C41" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D41" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="22"/>
     </row>
     <row r="42" spans="3:6" ht="15.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C42" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+    </row>
+    <row r="43" spans="3:6" ht="15.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C43" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D42" s="20" t="s">
+      <c r="D43" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-    </row>
-    <row r="43" spans="3:6" ht="15.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C43" s="5" t="s">
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+    </row>
+    <row r="44" spans="3:6" ht="15.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C44" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D43" s="22" t="s">
+      <c r="D44" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-    </row>
-    <row r="45" spans="3:6" ht="15.6" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="C45" s="2" t="s">
+      <c r="E44" s="33"/>
+      <c r="F44" s="33"/>
+    </row>
+    <row r="46" spans="3:6" ht="15.6" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="C46" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D45" s="12" t="s">
+      <c r="D46" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="E45" s="15" t="s">
+      <c r="E46" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="F45" s="15"/>
-    </row>
-    <row r="46" spans="3:6" ht="78" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C46" s="3" t="s">
+      <c r="F46" s="19"/>
+    </row>
+    <row r="47" spans="3:6" ht="78" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C47" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D46" s="16" t="s">
+      <c r="D47" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E46" s="17"/>
-      <c r="F46" s="18"/>
-    </row>
-    <row r="47" spans="3:6" ht="15.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C47" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D47" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="22"/>
     </row>
     <row r="48" spans="3:6" ht="15.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C48" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
+    </row>
+    <row r="49" spans="3:6" ht="15.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C49" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D48" s="20" t="s">
+      <c r="D49" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
-    </row>
-    <row r="49" spans="3:6" ht="31.2" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C49" s="5" t="s">
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+    </row>
+    <row r="50" spans="3:6" ht="31.2" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C50" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D49" s="22" t="s">
+      <c r="D50" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="E49" s="23"/>
-      <c r="F49" s="23"/>
-    </row>
-    <row r="51" spans="3:6" ht="15.6" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="C51" s="2" t="s">
+      <c r="E50" s="33"/>
+      <c r="F50" s="33"/>
+    </row>
+    <row r="52" spans="3:6" ht="15.6" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="C52" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D51" s="12" t="s">
+      <c r="D52" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="E51" s="15" t="s">
+      <c r="E52" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="F51" s="15"/>
-    </row>
-    <row r="52" spans="3:6" ht="75.599999999999994" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C52" s="3" t="s">
+      <c r="F52" s="19"/>
+    </row>
+    <row r="53" spans="3:6" ht="75.599999999999994" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C53" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D52" s="16" t="s">
+      <c r="D53" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E52" s="17"/>
-      <c r="F52" s="18"/>
-    </row>
-    <row r="53" spans="3:6" ht="33.6" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C53" s="4" t="s">
+      <c r="E53" s="21"/>
+      <c r="F53" s="22"/>
+    </row>
+    <row r="54" spans="3:6" ht="33.6" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C54" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D53" s="19" t="s">
+      <c r="D54" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
-    </row>
-    <row r="54" spans="3:6" ht="15.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C54" s="4" t="s">
+      <c r="E54" s="31"/>
+      <c r="F54" s="31"/>
+    </row>
+    <row r="55" spans="3:6" ht="15.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C55" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D54" s="20" t="s">
+      <c r="D55" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="E54" s="21"/>
-      <c r="F54" s="21"/>
-    </row>
-    <row r="55" spans="3:6" ht="15.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C55" s="5" t="s">
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
+    </row>
+    <row r="56" spans="3:6" ht="15.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C56" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D55" s="22" t="s">
+      <c r="D56" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="E55" s="23"/>
-      <c r="F55" s="23"/>
-    </row>
-    <row r="57" spans="3:6" ht="15.6" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="C57" s="2" t="s">
+      <c r="E56" s="33"/>
+      <c r="F56" s="33"/>
+    </row>
+    <row r="58" spans="3:6" ht="15.6" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="C58" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D57" s="12" t="s">
+      <c r="D58" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="E57" s="15" t="s">
+      <c r="E58" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="F57" s="15"/>
-    </row>
-    <row r="58" spans="3:6" ht="79.2" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C58" s="3" t="s">
+      <c r="F58" s="19"/>
+    </row>
+    <row r="59" spans="3:6" ht="79.2" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C59" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D58" s="16" t="s">
+      <c r="D59" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E58" s="17"/>
-      <c r="F58" s="18"/>
-    </row>
-    <row r="59" spans="3:6" ht="46.2" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C59" s="4" t="s">
+      <c r="E59" s="21"/>
+      <c r="F59" s="22"/>
+    </row>
+    <row r="60" spans="3:6" ht="46.2" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C60" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D59" s="19" t="s">
+      <c r="D60" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="E59" s="19"/>
-      <c r="F59" s="19"/>
-    </row>
-    <row r="60" spans="3:6" ht="15.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C60" s="4" t="s">
+      <c r="E60" s="31"/>
+      <c r="F60" s="31"/>
+    </row>
+    <row r="61" spans="3:6" ht="15.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C61" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D60" s="20" t="s">
+      <c r="D61" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="E60" s="21"/>
-      <c r="F60" s="21"/>
-    </row>
-    <row r="61" spans="3:6" ht="15.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C61" s="5" t="s">
+      <c r="E61" s="24"/>
+      <c r="F61" s="24"/>
+    </row>
+    <row r="62" spans="3:6" ht="15.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C62" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D61" s="22" t="s">
+      <c r="D62" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="E61" s="23"/>
-      <c r="F61" s="23"/>
-    </row>
-    <row r="63" spans="3:6" ht="15.6" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="C63" s="2" t="s">
+      <c r="E62" s="33"/>
+      <c r="F62" s="33"/>
+    </row>
+    <row r="64" spans="3:6" ht="15.6" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="C64" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D63" s="12" t="s">
+      <c r="D64" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="E63" s="15" t="s">
+      <c r="E64" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="F63" s="15"/>
-    </row>
-    <row r="64" spans="3:6" ht="79.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C64" s="3" t="s">
+      <c r="F64" s="19"/>
+    </row>
+    <row r="65" spans="3:6" ht="79.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C65" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D64" s="16" t="s">
+      <c r="D65" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="17"/>
-      <c r="F64" s="18"/>
-    </row>
-    <row r="65" spans="3:6" ht="30" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C65" s="4" t="s">
+      <c r="E65" s="21"/>
+      <c r="F65" s="22"/>
+    </row>
+    <row r="66" spans="3:6" ht="30" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C66" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D65" s="19" t="s">
+      <c r="D66" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="E65" s="19"/>
-      <c r="F65" s="19"/>
-    </row>
-    <row r="66" spans="3:6" ht="15.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C66" s="4" t="s">
+      <c r="E66" s="31"/>
+      <c r="F66" s="31"/>
+    </row>
+    <row r="67" spans="3:6" ht="15.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C67" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D66" s="20" t="s">
+      <c r="D67" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="E66" s="21"/>
-      <c r="F66" s="21"/>
-    </row>
-    <row r="67" spans="3:6" ht="15.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C67" s="5" t="s">
+      <c r="E67" s="24"/>
+      <c r="F67" s="24"/>
+    </row>
+    <row r="68" spans="3:6" ht="15.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C68" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D67" s="22" t="s">
+      <c r="D68" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="E67" s="23"/>
-      <c r="F67" s="23"/>
+      <c r="E68" s="33"/>
+      <c r="F68" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="59">
+  <mergeCells count="60">
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="D65:F65"/>
+    <mergeCell ref="D66:F66"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="D68:F68"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D19:F19"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
@@ -2109,56 +2112,9 @@
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="D14:F14"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="D64:F64"/>
-    <mergeCell ref="D65:F65"/>
-    <mergeCell ref="D66:F66"/>
-    <mergeCell ref="D67:F67"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="74" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2200,24 +2156,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
     </row>
     <row r="3" spans="2:7" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
     </row>
     <row r="5" spans="2:7" collapsed="1" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
@@ -2226,70 +2182,70 @@
       <c r="D5" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="41"/>
+      <c r="F5" s="44"/>
     </row>
     <row r="6" spans="2:7" ht="82.2" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="33"/>
-      <c r="F6" s="34"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="41"/>
     </row>
     <row r="7" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
     </row>
     <row r="8" spans="2:7" ht="43.2" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
     </row>
     <row r="9" spans="2:7" ht="47.4" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
     </row>
     <row r="10" spans="2:7" ht="33.6" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
     </row>
     <row r="11" spans="2:7" ht="43.2" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
     </row>
     <row r="12" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C12" s="10" t="s">
@@ -2299,10 +2255,10 @@
         <f>VLOOKUP($E$12,$C$139:$D$141,2)</f>
         <v>1</v>
       </c>
-      <c r="E12" s="38" t="s">
+      <c r="E12" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="39"/>
+      <c r="F12" s="35"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C13" s="7"/>
@@ -2317,70 +2273,70 @@
       <c r="D14" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="40" t="s">
+      <c r="E14" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="41"/>
+      <c r="F14" s="44"/>
     </row>
     <row r="15" spans="2:7" ht="82.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="33"/>
-      <c r="F15" s="34"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="41"/>
     </row>
     <row r="16" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C16" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
     </row>
     <row r="17" spans="3:6" ht="43.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C17" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="35" t="s">
+      <c r="D17" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
     </row>
     <row r="18" spans="3:6" ht="64.2" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C18" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
     </row>
     <row r="19" spans="3:6" ht="31.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C19" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
     </row>
     <row r="20" spans="3:6" ht="49.2" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C20" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="36" t="s">
+      <c r="D20" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
     </row>
     <row r="21" spans="3:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C21" s="5" t="s">
@@ -2390,10 +2346,10 @@
         <f>VLOOKUP($E$12,$C$139:$D$141,2)</f>
         <v>1</v>
       </c>
-      <c r="E21" s="43" t="s">
+      <c r="E21" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="44"/>
+      <c r="F21" s="46"/>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C22" s="7"/>
@@ -2408,70 +2364,70 @@
       <c r="D23" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="40" t="s">
+      <c r="E23" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="F23" s="41"/>
+      <c r="F23" s="44"/>
     </row>
     <row r="24" spans="3:6" ht="82.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C24" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="32" t="s">
+      <c r="D24" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="33"/>
-      <c r="F24" s="34"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="41"/>
     </row>
     <row r="25" spans="3:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C25" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
     </row>
     <row r="26" spans="3:6" ht="30.6" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C26" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D26" s="35" t="s">
+      <c r="D26" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
     </row>
     <row r="27" spans="3:6" ht="154.19999999999999" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C27" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
     </row>
     <row r="28" spans="3:6" ht="70.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C28" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="22" t="s">
+      <c r="D28" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
     </row>
     <row r="29" spans="3:6" ht="31.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C29" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="36" t="s">
+      <c r="D29" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
     </row>
     <row r="30" spans="3:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C30" s="10" t="s">
@@ -2481,10 +2437,10 @@
         <f>VLOOKUP($E$12,$C$139:$D$141,2)</f>
         <v>1</v>
       </c>
-      <c r="E30" s="38" t="s">
+      <c r="E30" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="F30" s="39"/>
+      <c r="F30" s="35"/>
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C31" s="7"/>
@@ -2499,70 +2455,70 @@
       <c r="D32" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="E32" s="40" t="s">
+      <c r="E32" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="F32" s="41"/>
+      <c r="F32" s="44"/>
     </row>
     <row r="33" spans="3:6" ht="82.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C33" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="32" t="s">
+      <c r="D33" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="E33" s="33"/>
-      <c r="F33" s="34"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="41"/>
     </row>
     <row r="34" spans="3:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C34" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="24" t="s">
+      <c r="D34" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
     </row>
     <row r="35" spans="3:6" ht="30.6" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C35" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D35" s="35" t="s">
+      <c r="D35" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
     </row>
     <row r="36" spans="3:6" ht="151.80000000000001" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C36" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D36" s="22" t="s">
+      <c r="D36" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
     </row>
     <row r="37" spans="3:6" ht="63" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C37" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="22" t="s">
+      <c r="D37" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
     </row>
     <row r="38" spans="3:6" ht="31.2" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C38" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D38" s="36" t="s">
+      <c r="D38" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
     </row>
     <row r="39" spans="3:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C39" s="10" t="s">
@@ -2572,10 +2528,10 @@
         <f>VLOOKUP($E$12,$C$139:$D$141,2)</f>
         <v>1</v>
       </c>
-      <c r="E39" s="38" t="s">
+      <c r="E39" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="F39" s="39"/>
+      <c r="F39" s="35"/>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C40" s="7"/>
@@ -2590,70 +2546,70 @@
       <c r="D41" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E41" s="40" t="s">
+      <c r="E41" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="F41" s="41"/>
+      <c r="F41" s="44"/>
     </row>
     <row r="42" spans="3:6" ht="76.2" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C42" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D42" s="32" t="s">
+      <c r="D42" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="E42" s="33"/>
-      <c r="F42" s="34"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="41"/>
     </row>
     <row r="43" spans="3:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C43" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D43" s="24" t="s">
+      <c r="D43" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
     </row>
     <row r="44" spans="3:6" ht="43.2" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C44" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D44" s="35" t="s">
+      <c r="D44" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="E44" s="35"/>
-      <c r="F44" s="35"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="36"/>
     </row>
     <row r="45" spans="3:6" ht="128.4" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C45" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D45" s="22" t="s">
+      <c r="D45" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="33"/>
     </row>
     <row r="46" spans="3:6" ht="65.400000000000006" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C46" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D46" s="22" t="s">
+      <c r="D46" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="E46" s="23"/>
-      <c r="F46" s="23"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="33"/>
     </row>
     <row r="47" spans="3:6" ht="31.2" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C47" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D47" s="36" t="s">
+      <c r="D47" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="E47" s="37"/>
-      <c r="F47" s="37"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="38"/>
     </row>
     <row r="48" spans="3:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C48" s="10" t="s">
@@ -2663,10 +2619,10 @@
         <f>VLOOKUP($E$12,$C$139:$D$141,2)</f>
         <v>1</v>
       </c>
-      <c r="E48" s="38" t="s">
+      <c r="E48" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="F48" s="39"/>
+      <c r="F48" s="35"/>
     </row>
     <row r="49" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C49" s="7"/>
@@ -2681,70 +2637,70 @@
       <c r="D50" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="E50" s="40" t="s">
+      <c r="E50" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="F50" s="41"/>
+      <c r="F50" s="44"/>
     </row>
     <row r="51" spans="3:6" ht="79.2" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C51" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D51" s="32" t="s">
+      <c r="D51" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="E51" s="33"/>
-      <c r="F51" s="34"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="41"/>
     </row>
     <row r="52" spans="3:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C52" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D52" s="24" t="s">
+      <c r="D52" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E52" s="24"/>
-      <c r="F52" s="24"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
     </row>
     <row r="53" spans="3:6" ht="36" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C53" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D53" s="35" t="s">
+      <c r="D53" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="E53" s="35"/>
-      <c r="F53" s="35"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
     </row>
     <row r="54" spans="3:6" ht="157.80000000000001" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C54" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D54" s="22" t="s">
+      <c r="D54" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="E54" s="23"/>
-      <c r="F54" s="23"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="33"/>
     </row>
     <row r="55" spans="3:6" ht="64.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C55" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D55" s="22" t="s">
+      <c r="D55" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="E55" s="23"/>
-      <c r="F55" s="23"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="33"/>
     </row>
     <row r="56" spans="3:6" ht="31.2" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D56" s="36" t="s">
+      <c r="D56" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="E56" s="37"/>
-      <c r="F56" s="37"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="38"/>
     </row>
     <row r="57" spans="3:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C57" s="10" t="s">
@@ -2754,10 +2710,10 @@
         <f>VLOOKUP($E$12,$C$139:$D$141,2)</f>
         <v>1</v>
       </c>
-      <c r="E57" s="38" t="s">
+      <c r="E57" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="F57" s="39"/>
+      <c r="F57" s="35"/>
     </row>
     <row r="58" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C58" s="7"/>
@@ -2772,70 +2728,70 @@
       <c r="D59" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E59" s="40" t="s">
+      <c r="E59" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="F59" s="41"/>
+      <c r="F59" s="44"/>
     </row>
     <row r="60" spans="3:6" ht="78.599999999999994" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C60" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D60" s="32" t="s">
+      <c r="D60" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="E60" s="33"/>
-      <c r="F60" s="34"/>
+      <c r="E60" s="40"/>
+      <c r="F60" s="41"/>
     </row>
     <row r="61" spans="3:6" ht="15.6" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C61" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D61" s="24" t="s">
+      <c r="D61" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E61" s="24"/>
-      <c r="F61" s="24"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="17"/>
     </row>
     <row r="62" spans="3:6" ht="36" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C62" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D62" s="35" t="s">
+      <c r="D62" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="E62" s="35"/>
-      <c r="F62" s="35"/>
+      <c r="E62" s="36"/>
+      <c r="F62" s="36"/>
     </row>
     <row r="63" spans="3:6" ht="151.80000000000001" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C63" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D63" s="22" t="s">
+      <c r="D63" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="E63" s="23"/>
-      <c r="F63" s="23"/>
+      <c r="E63" s="33"/>
+      <c r="F63" s="33"/>
     </row>
     <row r="64" spans="3:6" ht="64.2" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C64" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D64" s="22" t="s">
+      <c r="D64" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="E64" s="23"/>
-      <c r="F64" s="23"/>
+      <c r="E64" s="33"/>
+      <c r="F64" s="33"/>
     </row>
     <row r="65" spans="3:6" ht="31.2" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C65" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D65" s="36" t="s">
+      <c r="D65" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="E65" s="37"/>
-      <c r="F65" s="37"/>
+      <c r="E65" s="38"/>
+      <c r="F65" s="38"/>
     </row>
     <row r="66" spans="3:6" ht="15.6" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C66" s="10" t="s">
@@ -2845,10 +2801,10 @@
         <f>VLOOKUP($E$12,$C$139:$D$141,2)</f>
         <v>1</v>
       </c>
-      <c r="E66" s="38" t="s">
+      <c r="E66" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="F66" s="39"/>
+      <c r="F66" s="35"/>
     </row>
     <row r="67" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C67" s="7"/>
@@ -2863,70 +2819,70 @@
       <c r="D68" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E68" s="40" t="s">
+      <c r="E68" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="F68" s="41"/>
+      <c r="F68" s="44"/>
     </row>
     <row r="69" spans="3:6" ht="79.2" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C69" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D69" s="32" t="s">
+      <c r="D69" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="E69" s="33"/>
-      <c r="F69" s="34"/>
+      <c r="E69" s="40"/>
+      <c r="F69" s="41"/>
     </row>
     <row r="70" spans="3:6" ht="15.6" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C70" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D70" s="24" t="s">
+      <c r="D70" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E70" s="24"/>
-      <c r="F70" s="24"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="17"/>
     </row>
     <row r="71" spans="3:6" ht="15.6" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C71" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D71" s="35" t="s">
+      <c r="D71" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="E71" s="35"/>
-      <c r="F71" s="35"/>
+      <c r="E71" s="36"/>
+      <c r="F71" s="36"/>
     </row>
     <row r="72" spans="3:6" ht="96.6" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C72" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D72" s="22" t="s">
+      <c r="D72" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="E72" s="23"/>
-      <c r="F72" s="23"/>
+      <c r="E72" s="33"/>
+      <c r="F72" s="33"/>
     </row>
     <row r="73" spans="3:6" ht="36.6" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C73" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D73" s="22" t="s">
+      <c r="D73" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="E73" s="23"/>
-      <c r="F73" s="23"/>
+      <c r="E73" s="33"/>
+      <c r="F73" s="33"/>
     </row>
     <row r="74" spans="3:6" ht="31.2" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C74" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D74" s="20" t="s">
+      <c r="D74" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="E74" s="45"/>
-      <c r="F74" s="45"/>
+      <c r="E74" s="42"/>
+      <c r="F74" s="42"/>
     </row>
     <row r="75" spans="3:6" ht="15.6" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C75" s="10" t="s">
@@ -2936,10 +2892,10 @@
         <f>VLOOKUP($E$12,$C$139:$D$141,2)</f>
         <v>1</v>
       </c>
-      <c r="E75" s="38" t="s">
+      <c r="E75" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="F75" s="39"/>
+      <c r="F75" s="35"/>
     </row>
     <row r="76" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C76" s="7"/>
@@ -2954,70 +2910,70 @@
       <c r="D77" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="E77" s="40" t="s">
+      <c r="E77" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="F77" s="42"/>
+      <c r="F77" s="47"/>
     </row>
     <row r="78" spans="3:6" ht="78.599999999999994" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C78" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D78" s="32" t="s">
+      <c r="D78" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="E78" s="33"/>
-      <c r="F78" s="34"/>
+      <c r="E78" s="40"/>
+      <c r="F78" s="41"/>
     </row>
     <row r="79" spans="3:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C79" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D79" s="24" t="s">
+      <c r="D79" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="E79" s="24"/>
-      <c r="F79" s="24"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="17"/>
     </row>
     <row r="80" spans="3:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C80" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D80" s="35" t="s">
+      <c r="D80" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="E80" s="35"/>
-      <c r="F80" s="35"/>
+      <c r="E80" s="36"/>
+      <c r="F80" s="36"/>
     </row>
     <row r="81" spans="3:6" ht="96.6" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C81" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D81" s="22" t="s">
+      <c r="D81" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="E81" s="23"/>
-      <c r="F81" s="23"/>
+      <c r="E81" s="33"/>
+      <c r="F81" s="33"/>
     </row>
     <row r="82" spans="3:6" ht="31.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C82" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D82" s="22" t="s">
+      <c r="D82" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="E82" s="23"/>
-      <c r="F82" s="23"/>
+      <c r="E82" s="33"/>
+      <c r="F82" s="33"/>
     </row>
     <row r="83" spans="3:6" ht="31.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C83" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D83" s="20" t="s">
+      <c r="D83" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="E83" s="45"/>
-      <c r="F83" s="45"/>
+      <c r="E83" s="42"/>
+      <c r="F83" s="42"/>
     </row>
     <row r="84" spans="3:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C84" s="10" t="s">
@@ -3027,10 +2983,10 @@
         <f>VLOOKUP($E$12,$C$139:$D$141,2)</f>
         <v>1</v>
       </c>
-      <c r="E84" s="38" t="s">
+      <c r="E84" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="F84" s="39"/>
+      <c r="F84" s="35"/>
     </row>
     <row r="85" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C85" s="7"/>
@@ -3045,70 +3001,70 @@
       <c r="D86" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="E86" s="40" t="s">
+      <c r="E86" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="F86" s="42"/>
+      <c r="F86" s="47"/>
     </row>
     <row r="87" spans="3:6" ht="15.6" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C87" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D87" s="32" t="s">
+      <c r="D87" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="E87" s="33"/>
-      <c r="F87" s="34"/>
+      <c r="E87" s="40"/>
+      <c r="F87" s="41"/>
     </row>
     <row r="88" spans="3:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C88" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D88" s="24" t="s">
+      <c r="D88" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="E88" s="24"/>
-      <c r="F88" s="24"/>
+      <c r="E88" s="17"/>
+      <c r="F88" s="17"/>
     </row>
     <row r="89" spans="3:6" ht="48.6" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C89" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D89" s="35" t="s">
+      <c r="D89" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="E89" s="35"/>
-      <c r="F89" s="35"/>
+      <c r="E89" s="36"/>
+      <c r="F89" s="36"/>
     </row>
     <row r="90" spans="3:6" ht="93" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C90" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D90" s="22" t="s">
+      <c r="D90" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="E90" s="23"/>
-      <c r="F90" s="23"/>
+      <c r="E90" s="33"/>
+      <c r="F90" s="33"/>
     </row>
     <row r="91" spans="3:6" ht="31.2" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C91" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D91" s="22" t="s">
+      <c r="D91" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="E91" s="23"/>
-      <c r="F91" s="23"/>
+      <c r="E91" s="33"/>
+      <c r="F91" s="33"/>
     </row>
     <row r="92" spans="3:6" ht="31.2" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C92" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D92" s="20" t="s">
+      <c r="D92" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="E92" s="45"/>
-      <c r="F92" s="45"/>
+      <c r="E92" s="42"/>
+      <c r="F92" s="42"/>
     </row>
     <row r="93" spans="3:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C93" s="10" t="s">
@@ -3118,10 +3074,10 @@
         <f>VLOOKUP($E$12,$C$139:$D$141,2)</f>
         <v>1</v>
       </c>
-      <c r="E93" s="38" t="s">
+      <c r="E93" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="F93" s="39"/>
+      <c r="F93" s="35"/>
     </row>
     <row r="94" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C94" s="7"/>
@@ -3136,70 +3092,70 @@
       <c r="D95" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="E95" s="40" t="s">
+      <c r="E95" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="F95" s="42"/>
+      <c r="F95" s="47"/>
     </row>
     <row r="96" spans="3:6" ht="80.400000000000006" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C96" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D96" s="32" t="s">
+      <c r="D96" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="E96" s="33"/>
-      <c r="F96" s="34"/>
+      <c r="E96" s="40"/>
+      <c r="F96" s="41"/>
     </row>
     <row r="97" spans="3:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C97" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D97" s="24" t="s">
+      <c r="D97" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="E97" s="24"/>
-      <c r="F97" s="24"/>
+      <c r="E97" s="17"/>
+      <c r="F97" s="17"/>
     </row>
     <row r="98" spans="3:6" ht="50.4" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C98" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D98" s="35" t="s">
+      <c r="D98" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="E98" s="35"/>
-      <c r="F98" s="35"/>
+      <c r="E98" s="36"/>
+      <c r="F98" s="36"/>
     </row>
     <row r="99" spans="3:6" ht="81.599999999999994" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C99" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D99" s="22" t="s">
+      <c r="D99" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="E99" s="23"/>
-      <c r="F99" s="23"/>
+      <c r="E99" s="33"/>
+      <c r="F99" s="33"/>
     </row>
     <row r="100" spans="3:6" ht="31.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C100" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D100" s="22" t="s">
+      <c r="D100" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="E100" s="23"/>
-      <c r="F100" s="23"/>
+      <c r="E100" s="33"/>
+      <c r="F100" s="33"/>
     </row>
     <row r="101" spans="3:6" ht="31.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C101" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D101" s="20" t="s">
+      <c r="D101" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="E101" s="45"/>
-      <c r="F101" s="45"/>
+      <c r="E101" s="42"/>
+      <c r="F101" s="42"/>
     </row>
     <row r="102" spans="3:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C102" s="10" t="s">
@@ -3209,10 +3165,10 @@
         <f>VLOOKUP($E$12,$C$139:$D$141,2)</f>
         <v>1</v>
       </c>
-      <c r="E102" s="38" t="s">
+      <c r="E102" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="F102" s="39"/>
+      <c r="F102" s="35"/>
     </row>
     <row r="103" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C103" s="7"/>
@@ -3227,70 +3183,70 @@
       <c r="D104" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="E104" s="40" t="s">
+      <c r="E104" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="F104" s="42"/>
+      <c r="F104" s="47"/>
     </row>
     <row r="105" spans="3:6" ht="77.400000000000006" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C105" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D105" s="32" t="s">
+      <c r="D105" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="E105" s="33"/>
-      <c r="F105" s="34"/>
+      <c r="E105" s="40"/>
+      <c r="F105" s="41"/>
     </row>
     <row r="106" spans="3:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C106" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D106" s="24" t="s">
+      <c r="D106" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="E106" s="24"/>
-      <c r="F106" s="24"/>
+      <c r="E106" s="17"/>
+      <c r="F106" s="17"/>
     </row>
     <row r="107" spans="3:6" ht="55.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C107" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D107" s="35" t="s">
+      <c r="D107" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="E107" s="35"/>
-      <c r="F107" s="35"/>
+      <c r="E107" s="36"/>
+      <c r="F107" s="36"/>
     </row>
     <row r="108" spans="3:6" ht="31.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C108" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D108" s="22" t="s">
+      <c r="D108" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="E108" s="23"/>
-      <c r="F108" s="23"/>
+      <c r="E108" s="33"/>
+      <c r="F108" s="33"/>
     </row>
     <row r="109" spans="3:6" ht="31.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C109" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D109" s="22" t="s">
+      <c r="D109" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="E109" s="23"/>
-      <c r="F109" s="23"/>
+      <c r="E109" s="33"/>
+      <c r="F109" s="33"/>
     </row>
     <row r="110" spans="3:6" ht="31.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C110" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D110" s="20" t="s">
+      <c r="D110" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="E110" s="45"/>
-      <c r="F110" s="45"/>
+      <c r="E110" s="42"/>
+      <c r="F110" s="42"/>
     </row>
     <row r="111" spans="3:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C111" s="10" t="s">
@@ -3300,10 +3256,10 @@
         <f>VLOOKUP($E$12,$C$139:$D$141,2)</f>
         <v>1</v>
       </c>
-      <c r="E111" s="38" t="s">
+      <c r="E111" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="F111" s="39"/>
+      <c r="F111" s="35"/>
     </row>
     <row r="112" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C112" s="7"/>
@@ -3312,84 +3268,84 @@
       <c r="F112" s="8"/>
     </row>
     <row r="113" spans="3:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C113" s="31" t="s">
+      <c r="C113" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="D113" s="31"/>
-      <c r="E113" s="31"/>
-      <c r="F113" s="31"/>
+      <c r="D113" s="48"/>
+      <c r="E113" s="48"/>
+      <c r="F113" s="48"/>
     </row>
     <row r="114" spans="3:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C114" s="31" t="s">
+      <c r="C114" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="D114" s="31"/>
-      <c r="E114" s="31"/>
-      <c r="F114" s="31"/>
+      <c r="D114" s="48"/>
+      <c r="E114" s="48"/>
+      <c r="F114" s="48"/>
     </row>
     <row r="115" spans="3:6" s="13" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C115" s="31" t="s">
+      <c r="C115" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="D115" s="31"/>
-      <c r="E115" s="31"/>
-      <c r="F115" s="31"/>
+      <c r="D115" s="48"/>
+      <c r="E115" s="48"/>
+      <c r="F115" s="48"/>
     </row>
     <row r="116" spans="3:6" s="13" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C116" s="31" t="s">
+      <c r="C116" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="D116" s="31"/>
-      <c r="E116" s="31"/>
-      <c r="F116" s="31"/>
+      <c r="D116" s="48"/>
+      <c r="E116" s="48"/>
+      <c r="F116" s="48"/>
     </row>
     <row r="117" spans="3:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C117" s="31" t="s">
+      <c r="C117" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="D117" s="31"/>
-      <c r="E117" s="31"/>
-      <c r="F117" s="31"/>
+      <c r="D117" s="48"/>
+      <c r="E117" s="48"/>
+      <c r="F117" s="48"/>
     </row>
     <row r="118" spans="3:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C118" s="31" t="s">
+      <c r="C118" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="D118" s="31"/>
-      <c r="E118" s="31"/>
-      <c r="F118" s="31"/>
+      <c r="D118" s="48"/>
+      <c r="E118" s="48"/>
+      <c r="F118" s="48"/>
     </row>
     <row r="119" spans="3:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C119" s="31" t="s">
+      <c r="C119" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="D119" s="31"/>
-      <c r="E119" s="31"/>
-      <c r="F119" s="31"/>
+      <c r="D119" s="48"/>
+      <c r="E119" s="48"/>
+      <c r="F119" s="48"/>
     </row>
     <row r="120" spans="3:6" s="13" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C120" s="31" t="s">
+      <c r="C120" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="D120" s="31"/>
-      <c r="E120" s="31"/>
-      <c r="F120" s="31"/>
+      <c r="D120" s="48"/>
+      <c r="E120" s="48"/>
+      <c r="F120" s="48"/>
     </row>
     <row r="121" spans="3:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C121" s="31" t="s">
+      <c r="C121" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="D121" s="31"/>
-      <c r="E121" s="31"/>
-      <c r="F121" s="31"/>
+      <c r="D121" s="48"/>
+      <c r="E121" s="48"/>
+      <c r="F121" s="48"/>
     </row>
     <row r="122" spans="3:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C122" s="31" t="s">
+      <c r="C122" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="D122" s="31"/>
-      <c r="E122" s="31"/>
-      <c r="F122" s="31"/>
+      <c r="D122" s="48"/>
+      <c r="E122" s="48"/>
+      <c r="F122" s="48"/>
     </row>
     <row r="138" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C138" s="9" t="s">
@@ -3422,33 +3378,63 @@
     </row>
   </sheetData>
   <mergeCells count="108">
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="D64:F64"/>
-    <mergeCell ref="D65:F65"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="D69:F69"/>
-    <mergeCell ref="D70:F70"/>
-    <mergeCell ref="D71:F71"/>
-    <mergeCell ref="D72:F72"/>
-    <mergeCell ref="D73:F73"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="C118:F118"/>
+    <mergeCell ref="C119:F119"/>
+    <mergeCell ref="C120:F120"/>
+    <mergeCell ref="C121:F121"/>
+    <mergeCell ref="C122:F122"/>
+    <mergeCell ref="C113:F113"/>
+    <mergeCell ref="C114:F114"/>
+    <mergeCell ref="C115:F115"/>
+    <mergeCell ref="C116:F116"/>
+    <mergeCell ref="C117:F117"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="D109:F109"/>
+    <mergeCell ref="D110:F110"/>
+    <mergeCell ref="E111:F111"/>
+    <mergeCell ref="D105:F105"/>
+    <mergeCell ref="D106:F106"/>
+    <mergeCell ref="D107:F107"/>
+    <mergeCell ref="D108:F108"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="D100:F100"/>
+    <mergeCell ref="D101:F101"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="D96:F96"/>
+    <mergeCell ref="D97:F97"/>
+    <mergeCell ref="D98:F98"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="D99:F99"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="D90:F90"/>
+    <mergeCell ref="D91:F91"/>
+    <mergeCell ref="D92:F92"/>
+    <mergeCell ref="E93:F93"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="D83:F83"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="D87:F87"/>
+    <mergeCell ref="D88:F88"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="D78:F78"/>
     <mergeCell ref="D79:F79"/>
@@ -3473,63 +3459,33 @@
     <mergeCell ref="D19:F19"/>
     <mergeCell ref="D45:F45"/>
     <mergeCell ref="E21:F21"/>
-    <mergeCell ref="D89:F89"/>
-    <mergeCell ref="D90:F90"/>
-    <mergeCell ref="D91:F91"/>
-    <mergeCell ref="D92:F92"/>
-    <mergeCell ref="E93:F93"/>
-    <mergeCell ref="D82:F82"/>
-    <mergeCell ref="D83:F83"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="D87:F87"/>
-    <mergeCell ref="D88:F88"/>
-    <mergeCell ref="D96:F96"/>
-    <mergeCell ref="D97:F97"/>
-    <mergeCell ref="D98:F98"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="D99:F99"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="D109:F109"/>
-    <mergeCell ref="D110:F110"/>
-    <mergeCell ref="E111:F111"/>
-    <mergeCell ref="D105:F105"/>
-    <mergeCell ref="D106:F106"/>
-    <mergeCell ref="D107:F107"/>
-    <mergeCell ref="D108:F108"/>
-    <mergeCell ref="E104:F104"/>
-    <mergeCell ref="D100:F100"/>
-    <mergeCell ref="D101:F101"/>
-    <mergeCell ref="E102:F102"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="C118:F118"/>
-    <mergeCell ref="C119:F119"/>
-    <mergeCell ref="C120:F120"/>
-    <mergeCell ref="C121:F121"/>
-    <mergeCell ref="C122:F122"/>
-    <mergeCell ref="C113:F113"/>
-    <mergeCell ref="C114:F114"/>
-    <mergeCell ref="C115:F115"/>
-    <mergeCell ref="C116:F116"/>
-    <mergeCell ref="C117:F117"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="D65:F65"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="D69:F69"/>
+    <mergeCell ref="D70:F70"/>
+    <mergeCell ref="D71:F71"/>
+    <mergeCell ref="D72:F72"/>
+    <mergeCell ref="D73:F73"/>
+    <mergeCell ref="D74:F74"/>
   </mergeCells>
   <conditionalFormatting sqref="D21">
     <cfRule type="iconSet" priority="31">
@@ -3672,7 +3628,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="B2:G19"/>
+  <dimension ref="A2:H19"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D17" sqref="D17:F17"/>
@@ -3690,24 +3646,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
     </row>
     <row r="3" spans="2:7" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
     </row>
     <row r="4" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
@@ -3717,7 +3673,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="2:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
       <c r="C5" s="2" t="s">
         <v>0</v>
@@ -3725,10 +3681,10 @@
       <c r="D5" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="43" t="s">
         <v>141</v>
       </c>
-      <c r="F5" s="41"/>
+      <c r="F5" s="44"/>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="2:7" ht="76.8" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3736,11 +3692,11 @@
       <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="33"/>
-      <c r="F6" s="34"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="41"/>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="2:7" ht="15.6" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3748,11 +3704,11 @@
       <c r="C7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="2:7" ht="15.6" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3764,10 +3720,10 @@
         <f>VLOOKUP($E$8,'Requerimentos Funcionales'!$C$139:$D$141,2)</f>
         <v>1</v>
       </c>
-      <c r="E8" s="38" t="s">
+      <c r="E8" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="39"/>
+      <c r="F8" s="35"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -3785,30 +3741,30 @@
       <c r="D10" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="E10" s="40" t="s">
+      <c r="E10" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="F10" s="41"/>
+      <c r="F10" s="44"/>
     </row>
     <row r="11" spans="2:7" ht="84.6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="33"/>
-      <c r="F11" s="34"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="41"/>
     </row>
     <row r="12" spans="2:7" ht="16.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
     </row>
     <row r="13" spans="2:7" ht="15.6" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C13" s="10" t="s">
@@ -3818,10 +3774,10 @@
         <f>VLOOKUP($E$8,'Requerimentos Funcionales'!$C$139:$D$141,2)</f>
         <v>1</v>
       </c>
-      <c r="E13" s="38" t="s">
+      <c r="E13" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="39"/>
+      <c r="F13" s="35"/>
     </row>
     <row r="16" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C16" s="2" t="s">
@@ -3830,30 +3786,30 @@
       <c r="D16" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="E16" s="40" t="s">
+      <c r="E16" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="F16" s="41"/>
+      <c r="F16" s="44"/>
     </row>
     <row r="17" spans="3:6" ht="75.599999999999994" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="32" t="s">
+      <c r="D17" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="33"/>
-      <c r="F17" s="34"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="41"/>
     </row>
     <row r="18" spans="3:6" ht="75.599999999999994" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C18" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="35" t="s">
+      <c r="D18" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
     </row>
     <row r="19" spans="3:6" ht="15.6" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C19" s="10" t="s">
@@ -3863,19 +3819,13 @@
         <f>VLOOKUP($E$8,'Requerimentos Funcionales'!$C$139:$D$141,2)</f>
         <v>1</v>
       </c>
-      <c r="E19" s="38" t="s">
+      <c r="E19" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="39"/>
+      <c r="F19" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="E13:F13"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="D17:F17"/>
@@ -3884,6 +3834,12 @@
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="E13:F13"/>
   </mergeCells>
   <conditionalFormatting sqref="D8:D9">
     <cfRule type="iconSet" priority="3">
